--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2364378.642641668</v>
+        <v>2362002.015694302</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>2.905978890210347</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>61.18421556648219</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>185.5217629586818</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>149.9704787611675</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>56.70882917873329</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>96.97633795874938</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>84.64018041787068</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>174.427492571339</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247052</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>98.23021146256004</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542794</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>218.6880288329276</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503955</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>207.9255310585129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59.96838802184498</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>1.799772605716112</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174112</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>186.9166231085228</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>180.1003471321691</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1624.92672505065</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="C2" t="n">
-        <v>1624.92672505065</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1266.6610264439</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>880.8727738456555</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>469.8868690560479</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>54.18211878033679</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321148</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362836</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816098</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872908</v>
+        <v>795.755353087293</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.92672505065</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.92672505065</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>483.0441129489469</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>1092.885047004313</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687206</v>
+        <v>1456.147065963533</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>281.0354892056661</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="C4" t="n">
-        <v>281.0354892056661</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="D4" t="n">
-        <v>281.0354892056661</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E4" t="n">
-        <v>281.0354892056661</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>281.0354892056661</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>113.0490245139447</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426267</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056661</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="X4" t="n">
-        <v>281.0354892056661</v>
+        <v>485.6403455667598</v>
       </c>
       <c r="Y4" t="n">
-        <v>281.0354892056661</v>
+        <v>485.6403455667598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1407.319888150872</v>
+        <v>1589.988596769088</v>
       </c>
       <c r="C5" t="n">
-        <v>1038.35737121046</v>
+        <v>1221.026079828676</v>
       </c>
       <c r="D5" t="n">
-        <v>680.0916726037096</v>
+        <v>1221.026079828676</v>
       </c>
       <c r="E5" t="n">
-        <v>680.0916726037096</v>
+        <v>835.2378272304315</v>
       </c>
       <c r="F5" t="n">
-        <v>269.1057678141021</v>
+        <v>828.2923264812281</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>412.5875762055169</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>108.5284322030872</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190805</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="W5" t="n">
-        <v>2184.059060190805</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="X5" t="n">
-        <v>2184.059060190805</v>
+        <v>1980.127928744899</v>
       </c>
       <c r="Y5" t="n">
-        <v>1793.919728214993</v>
+        <v>1589.988596769088</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>423.1489515180659</v>
       </c>
       <c r="L6" t="n">
-        <v>1057.327935297104</v>
+        <v>717.8525085495376</v>
       </c>
       <c r="M6" t="n">
-        <v>1420.589954256325</v>
+        <v>1081.114527508757</v>
       </c>
       <c r="N6" t="n">
-        <v>1807.87508285327</v>
+        <v>1468.399656105702</v>
       </c>
       <c r="O6" t="n">
-        <v>2139.945518029432</v>
+        <v>2102.578639884741</v>
       </c>
       <c r="P6" t="n">
-        <v>2387.128251861729</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>536.0825277700245</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="C7" t="n">
-        <v>367.1463448421176</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D7" t="n">
-        <v>367.1463448421176</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1538.490223146467</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1341.861475306328</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1341.861475306328</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1052.743137810166</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>798.0586496042794</v>
       </c>
       <c r="W7" t="n">
-        <v>803.2261243354872</v>
+        <v>798.0586496042794</v>
       </c>
       <c r="X7" t="n">
-        <v>803.2261243354872</v>
+        <v>570.069098706262</v>
       </c>
       <c r="Y7" t="n">
-        <v>717.7309926002642</v>
+        <v>349.2765195627319</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1471.210842731381</v>
+        <v>890.9810522552812</v>
       </c>
       <c r="C8" t="n">
-        <v>1102.24832579097</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="D8" t="n">
-        <v>1102.24832579097</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E8" t="n">
-        <v>716.4600731927253</v>
+        <v>136.2302827166253</v>
       </c>
       <c r="F8" t="n">
-        <v>305.4741684031177</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>293.8098221678107</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362816</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723848</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400154</v>
+        <v>2338.417685105857</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400154</v>
+        <v>2338.417685105857</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056583</v>
+        <v>2007.354797762287</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056583</v>
+        <v>1654.586142492173</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795503</v>
+        <v>1281.120384231093</v>
       </c>
       <c r="Y8" t="n">
-        <v>1857.810682795503</v>
+        <v>890.9810522552812</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.427330237016</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380235</v>
+        <v>298.3188265310612</v>
       </c>
       <c r="L9" t="n">
-        <v>909.246581869495</v>
+        <v>593.0223835625327</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>956.2844025217527</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1590.463386300791</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1922.533821476953</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>102.742491745203</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800307</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4990,22 +4990,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>648.7678147460443</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>420.778263848027</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>199.9856847044969</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,19 +5036,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>659.9487421954783</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>491.0125592675714</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179773</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1834.480995310113</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1579.796507104226</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1290.379337067265</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1062.389786169248</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>841.597207025718</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5264,31 +5264,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5504,19 +5504,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5653,16 +5653,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5887,22 +5887,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5969,28 +5969,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745235</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637304</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444888</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684175</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6364,16 +6364,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>343.0994656851784</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851784</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851784</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793924</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348531</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6929,28 +6929,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,40 +7397,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,25 +7488,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452613</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7549,19 +7549,19 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.8641191832228</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>634.9279362553159</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.396372297858</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1723.711884091971</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1434.29471405501</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1206.305163156993</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>985.5125840134625</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.84741111297626e-12</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5911984019047</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621888</v>
+        <v>114.355508901336</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>98.24448441976892</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.50016306149536</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787836</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>280.1079373569284</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154994</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-1.531667803215789e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>78.25894333073123</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557218919</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>146.8157004124963</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823371</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25360,13 +25360,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>30.48882721876549</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>106.084127257075</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>813246.0393401295</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982126</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982127</v>
-      </c>
-      <c r="C2" t="n">
-        <v>615781.3273982129</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.949767504</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="I2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675044</v>
       </c>
       <c r="K2" t="n">
         <v>605359.949767504</v>
       </c>
       <c r="L2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="N2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675046</v>
       </c>
     </row>
     <row r="3">
@@ -26424,37 +26424,37 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670737</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707369</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707402</v>
+        <v>6897.42449670739</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707388</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707441</v>
+        <v>6897.424496707425</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.42449670735</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707374</v>
+        <v>6897.424496707341</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707349</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="P4" t="n">
         <v>6897.42449670736</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984467</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-723817.9554491764</v>
+        <v>-723817.9554491765</v>
       </c>
       <c r="C6" t="n">
-        <v>390933.8281267432</v>
+        <v>390933.8281267431</v>
       </c>
       <c r="D6" t="n">
-        <v>390933.8281267434</v>
+        <v>390933.8281267431</v>
       </c>
       <c r="E6" t="n">
-        <v>-10145.44617765619</v>
+        <v>-10180.18410309212</v>
       </c>
       <c r="F6" t="n">
-        <v>497339.9954468897</v>
+        <v>497305.2575214542</v>
       </c>
       <c r="G6" t="n">
-        <v>497339.9954468896</v>
+        <v>497305.2575214538</v>
       </c>
       <c r="H6" t="n">
-        <v>497339.9954468896</v>
+        <v>497305.2575214542</v>
       </c>
       <c r="I6" t="n">
-        <v>497339.9954468899</v>
+        <v>497305.2575214542</v>
       </c>
       <c r="J6" t="n">
-        <v>329734.8176369072</v>
+        <v>329700.0797114715</v>
       </c>
       <c r="K6" t="n">
-        <v>497339.9954468897</v>
+        <v>497305.2575214538</v>
       </c>
       <c r="L6" t="n">
-        <v>497339.9954468897</v>
+        <v>497305.2575214541</v>
       </c>
       <c r="M6" t="n">
-        <v>364732.7017179631</v>
+        <v>364697.9637925272</v>
       </c>
       <c r="N6" t="n">
-        <v>497339.9954468898</v>
+        <v>497305.257521454</v>
       </c>
       <c r="O6" t="n">
-        <v>497339.9954468897</v>
+        <v>497305.2575214544</v>
       </c>
       <c r="P6" t="n">
-        <v>497339.9954468898</v>
+        <v>497305.2575214545</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.064892117539</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.064892117539</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175389</v>
+        <v>934.064892117539</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000384</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.064892117539</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.910608224135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>292.3234674802251</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>298.112573672195</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>86.06729358864669</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>40.18789243035533</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>261.5772240117865</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>9.001083493737234</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>4.581234460824263</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.9444729342241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>126.5910599910664</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>108.4279735176737</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193762</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>67.83496950366336</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31042,7 +31042,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
@@ -31060,7 +31060,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166594</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T2" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H3" t="n">
         <v>19.4038763438002</v>
@@ -31130,22 +31130,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L3" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q3" t="n">
         <v>256.462496416876</v>
@@ -31197,7 +31197,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H4" t="n">
         <v>14.97566335231072</v>
@@ -31212,10 +31212,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067958</v>
@@ -31230,13 +31230,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U4" t="n">
         <v>0.09187523529024984</v>
@@ -31279,7 +31279,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
@@ -31297,7 +31297,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166594</v>
@@ -31312,13 +31312,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,7 +31355,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
@@ -31367,22 +31367,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31434,7 +31434,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
@@ -31449,10 +31449,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
@@ -31467,13 +31467,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U7" t="n">
         <v>0.09187523529024984</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181058</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336177</v>
@@ -31525,25 +31525,25 @@
         <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730002</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342222</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166592</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190643</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.501508014705</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
         <v>235.8772011235311</v>
@@ -31598,19 +31598,19 @@
         <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
         <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177242</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040586</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N9" t="n">
         <v>522.538811676207</v>
@@ -31631,7 +31631,7 @@
         <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675763</v>
@@ -31674,10 +31674,10 @@
         <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335769</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31698,22 +31698,22 @@
         <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069559</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024982</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>362.180468412921</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,19 +32315,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,10 +32552,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,37 +32786,37 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>364.320803524584</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,37 +33023,37 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704916</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33260,37 +33260,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33731,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>172.8142548092788</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963282</v>
+        <v>233.3139244897919</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,19 +34448,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,16 +34469,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225055</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067507</v>
@@ -34708,7 +34708,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949726</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>373.1786946453895</v>
+        <v>451.0527332560633</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>412.0358695391861</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235322</v>
@@ -34799,7 +34799,7 @@
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.5838886097709</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K4" t="n">
         <v>173.424759342349</v>
@@ -34863,7 +34863,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860244</v>
@@ -34872,7 +34872,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q4" t="n">
         <v>54.881755458054</v>
@@ -34936,7 +34936,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067507</v>
@@ -34945,7 +34945,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949726</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>347.9240135433011</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.9808853923499</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
@@ -35100,7 +35100,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
@@ -35109,7 +35109,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
         <v>54.881755458054</v>
@@ -35176,25 +35176,25 @@
         <v>257.5646495407336</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457275</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376313</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949725</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637947</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939896</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091737</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313207</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L9" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820403</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928738</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961228</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235321</v>
+        <v>529.7874664804606</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870589</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468032</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805397</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>224.339029438562</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>224.3390294385625</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561613</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.348781916454</v>
+        <v>94.75954470991771</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
